--- a/biology/Zoologie/Dipodomys_californicus/Dipodomys_californicus.xlsx
+++ b/biology/Zoologie/Dipodomys_californicus/Dipodomys_californicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipodomys californicus, est une espèce de Rongeurs de la famille des Heteromyidae. C'est un petit mammifère qui fait partie des rats-kangourous d'Amérique.
 L'espèce a été décrite pour la première fois en 1890 par un zoologiste américain, Clinton Hart Merriam (1855-1942).
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis où elle est présente en Oregon, en Californie et au Nevada. Elle vit dans les prairies de vallées, les chaparrals ouverts et dans les zones boisées des contreforts[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis où elle est présente en Oregon, en Californie et au Nevada. Elle vit dans les prairies de vallées, les chaparrals ouverts et dans les zones boisées des contreforts.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016)[2] et ITIS      (2 juin 2016)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016) et ITIS      (2 juin 2016) :
 sous-espèce Dipodomys californicus californicus
 sous-espèce Dipodomys californicus eximius
 sous-espèce Dipodomys californicus saxatilis</t>
